--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_고아라.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_고아라.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARA\Desktop\7월 스터디\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD1D5F-F28C-4A5A-A5C3-510987EE4631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D08A1-AF6D-4800-8EEF-EFD3B5FDB772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C01C1A8E-4ADD-40E9-8DA3-9E41321FCE29}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>~ #4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +204,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="185" formatCode="mm\/dd"/>
+    <numFmt numFmtId="177" formatCode="mm\/dd"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -301,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -310,13 +314,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +641,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -682,6 +686,12 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44015</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -836,7 +846,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -849,17 +859,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -907,6 +917,13 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>44015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <f>(13/25)</f>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
